--- a/data/pca/factorExposure/factorExposure_2009-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01752793960984136</v>
+        <v>0.01692427212398641</v>
       </c>
       <c r="C2">
-        <v>-0.002058957061075899</v>
+        <v>-0.001423754746541796</v>
       </c>
       <c r="D2">
-        <v>0.01056705064270984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01075498228973541</v>
+      </c>
+      <c r="E2">
+        <v>-0.001869874850604054</v>
+      </c>
+      <c r="F2">
+        <v>0.0194880352906477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08592442912889185</v>
+        <v>0.08953314084374818</v>
       </c>
       <c r="C4">
-        <v>-0.01995164902472632</v>
+        <v>-0.01569724799847559</v>
       </c>
       <c r="D4">
-        <v>0.08102159567560882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0841543223796091</v>
+      </c>
+      <c r="E4">
+        <v>-0.0344272704210306</v>
+      </c>
+      <c r="F4">
+        <v>-0.04252949173925288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0004260982529637001</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.863856564160471e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001692857502485429</v>
+      </c>
+      <c r="E5">
+        <v>0.0002616005529677858</v>
+      </c>
+      <c r="F5">
+        <v>-0.0007350451472116674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1587860835174251</v>
+        <v>0.1656710907194792</v>
       </c>
       <c r="C6">
-        <v>-0.0356513738950156</v>
+        <v>-0.03425362750860429</v>
       </c>
       <c r="D6">
-        <v>-0.02739422192549616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0170680649966807</v>
+      </c>
+      <c r="E6">
+        <v>-0.01681768344827971</v>
+      </c>
+      <c r="F6">
+        <v>-0.05746724723682635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05662066758432365</v>
+        <v>0.06076314921098486</v>
       </c>
       <c r="C7">
-        <v>-0.001985806464418519</v>
+        <v>0.001122854251140196</v>
       </c>
       <c r="D7">
-        <v>0.04840156886934368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05324048046836981</v>
+      </c>
+      <c r="E7">
+        <v>-0.02132978976478609</v>
+      </c>
+      <c r="F7">
+        <v>-0.0498954090587374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05798632456154933</v>
+        <v>0.05479320920853271</v>
       </c>
       <c r="C8">
-        <v>0.009891006133511097</v>
+        <v>0.01161824967358141</v>
       </c>
       <c r="D8">
-        <v>0.02871930387854744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03112545385634676</v>
+      </c>
+      <c r="E8">
+        <v>-0.01430944063501165</v>
+      </c>
+      <c r="F8">
+        <v>0.03472570789858322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06736815990427562</v>
+        <v>0.0702712632340057</v>
       </c>
       <c r="C9">
-        <v>-0.0159062225038484</v>
+        <v>-0.01154508495616028</v>
       </c>
       <c r="D9">
-        <v>0.08528915889883153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08832811486795483</v>
+      </c>
+      <c r="E9">
+        <v>-0.03306163032929263</v>
+      </c>
+      <c r="F9">
+        <v>-0.06294121549232885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09141801648945681</v>
+        <v>0.08934273245599952</v>
       </c>
       <c r="C10">
-        <v>-0.0220194711337198</v>
+        <v>-0.02447891352592759</v>
       </c>
       <c r="D10">
-        <v>-0.1644681752218211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1554136699485657</v>
+      </c>
+      <c r="E10">
+        <v>0.03845859191439672</v>
+      </c>
+      <c r="F10">
+        <v>0.07624633382027658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08812482705337167</v>
+        <v>0.08542533046298881</v>
       </c>
       <c r="C11">
-        <v>-0.01741376050527016</v>
+        <v>-0.01253715500433726</v>
       </c>
       <c r="D11">
-        <v>0.1187417464842841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1235376963249369</v>
+      </c>
+      <c r="E11">
+        <v>-0.06093659704778636</v>
+      </c>
+      <c r="F11">
+        <v>-0.01407630507297127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09320164756550998</v>
+        <v>0.08855775102788702</v>
       </c>
       <c r="C12">
-        <v>-0.01548420814139503</v>
+        <v>-0.01003987750113494</v>
       </c>
       <c r="D12">
-        <v>0.1245860247152019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1368181752181833</v>
+      </c>
+      <c r="E12">
+        <v>-0.06422110123459081</v>
+      </c>
+      <c r="F12">
+        <v>-0.01676651459766756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04476796583835051</v>
+        <v>0.04506239467380345</v>
       </c>
       <c r="C13">
-        <v>-0.007464224789376474</v>
+        <v>-0.004083481297648166</v>
       </c>
       <c r="D13">
-        <v>0.04979081676343333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05744501179700662</v>
+      </c>
+      <c r="E13">
+        <v>-0.001502898141570572</v>
+      </c>
+      <c r="F13">
+        <v>-0.01390073119972703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01807201040968663</v>
+        <v>0.02119749726242463</v>
       </c>
       <c r="C14">
-        <v>-0.01460888203627136</v>
+        <v>-0.01363260977372624</v>
       </c>
       <c r="D14">
-        <v>0.03204350734671634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0343831533432724</v>
+      </c>
+      <c r="E14">
+        <v>-0.02466426021986009</v>
+      </c>
+      <c r="F14">
+        <v>-0.01958534048010848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03417276442069327</v>
+        <v>0.03487835256441562</v>
       </c>
       <c r="C15">
-        <v>-0.008410049787071593</v>
+        <v>-0.006612785860769447</v>
       </c>
       <c r="D15">
-        <v>0.05093816993795425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05088549209929964</v>
+      </c>
+      <c r="E15">
+        <v>-0.01459872628656138</v>
+      </c>
+      <c r="F15">
+        <v>-0.03129584362404007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06963381659065879</v>
+        <v>0.06859218125252158</v>
       </c>
       <c r="C16">
-        <v>-0.006470537342833715</v>
+        <v>-0.001564303890917301</v>
       </c>
       <c r="D16">
-        <v>0.1195631954965115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1315339021030819</v>
+      </c>
+      <c r="E16">
+        <v>-0.07473169777299411</v>
+      </c>
+      <c r="F16">
+        <v>-0.01482365747614738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002187335995565596</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.001097085452773079</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00208360699431267</v>
+      </c>
+      <c r="E17">
+        <v>-0.004784464173048825</v>
+      </c>
+      <c r="F17">
+        <v>0.004008956489906385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02889589255795611</v>
+        <v>0.04571530137232212</v>
       </c>
       <c r="C18">
-        <v>0.0003056780106881832</v>
+        <v>0.0002329918168830613</v>
       </c>
       <c r="D18">
-        <v>0.02122606926377442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02114287018451986</v>
+      </c>
+      <c r="E18">
+        <v>0.004090775974255944</v>
+      </c>
+      <c r="F18">
+        <v>0.01502860177351401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06260526792903713</v>
+        <v>0.0617901471364268</v>
       </c>
       <c r="C20">
-        <v>-0.005325694645588555</v>
+        <v>-0.002348396228029172</v>
       </c>
       <c r="D20">
-        <v>0.08018608383352525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0829039126730803</v>
+      </c>
+      <c r="E20">
+        <v>-0.06829448379401225</v>
+      </c>
+      <c r="F20">
+        <v>-0.03534528090864832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04028548069893732</v>
+        <v>0.04248297570532273</v>
       </c>
       <c r="C21">
-        <v>-0.009895801758684666</v>
+        <v>-0.007341548930983054</v>
       </c>
       <c r="D21">
-        <v>0.04090909100989828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03948788424109581</v>
+      </c>
+      <c r="E21">
+        <v>-0.002424962899269978</v>
+      </c>
+      <c r="F21">
+        <v>0.01981091087747579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04465471595994412</v>
+        <v>0.04460840480965559</v>
       </c>
       <c r="C22">
-        <v>-0.003663913420614262</v>
+        <v>-0.002401930916872877</v>
       </c>
       <c r="D22">
-        <v>0.003612365678903808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01136750800977728</v>
+      </c>
+      <c r="E22">
+        <v>-0.0299990826581499</v>
+      </c>
+      <c r="F22">
+        <v>0.0958298418937657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04466330050608315</v>
+        <v>0.04461573489106861</v>
       </c>
       <c r="C23">
-        <v>-0.003666186258497376</v>
+        <v>-0.002404102933778466</v>
       </c>
       <c r="D23">
-        <v>0.003603450704093234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01136065446904702</v>
+      </c>
+      <c r="E23">
+        <v>-0.03000683040721576</v>
+      </c>
+      <c r="F23">
+        <v>0.0958706494385576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.077471849424009</v>
+        <v>0.07511072956995625</v>
       </c>
       <c r="C24">
-        <v>-0.007346845134304396</v>
+        <v>-0.002699965409619942</v>
       </c>
       <c r="D24">
-        <v>0.1224294524146606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1257563269733268</v>
+      </c>
+      <c r="E24">
+        <v>-0.05887824627810908</v>
+      </c>
+      <c r="F24">
+        <v>-0.0252595787484037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08211732648498195</v>
+        <v>0.07957733962791393</v>
       </c>
       <c r="C25">
-        <v>-0.009811357138059612</v>
+        <v>-0.005527782330868048</v>
       </c>
       <c r="D25">
-        <v>0.1096379630936439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1137534013806926</v>
+      </c>
+      <c r="E25">
+        <v>-0.04550949902915302</v>
+      </c>
+      <c r="F25">
+        <v>-0.02053705685054922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05604794067034859</v>
+        <v>0.06106273291637344</v>
       </c>
       <c r="C26">
-        <v>-0.01875487892505641</v>
+        <v>-0.01603029598596216</v>
       </c>
       <c r="D26">
-        <v>0.04555841441491407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05223707642383572</v>
+      </c>
+      <c r="E26">
+        <v>-0.03246186127386458</v>
+      </c>
+      <c r="F26">
+        <v>0.01053044865010655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.146865165251392</v>
+        <v>0.1519332887525289</v>
       </c>
       <c r="C28">
-        <v>-0.02472459928453038</v>
+        <v>-0.02970111238211624</v>
       </c>
       <c r="D28">
-        <v>-0.2487874528442583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2473435120500488</v>
+      </c>
+      <c r="E28">
+        <v>0.06277531461903614</v>
+      </c>
+      <c r="F28">
+        <v>-0.01649276760488949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02528916137871936</v>
+        <v>0.02737539754217246</v>
       </c>
       <c r="C29">
-        <v>-0.009809663867593582</v>
+        <v>-0.009020286480940359</v>
       </c>
       <c r="D29">
-        <v>0.03119508985619167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03233671093969916</v>
+      </c>
+      <c r="E29">
+        <v>-0.01912756079582878</v>
+      </c>
+      <c r="F29">
+        <v>0.0201541392121955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0526377906339105</v>
+        <v>0.0516807963257656</v>
       </c>
       <c r="C30">
-        <v>-0.006070092987120461</v>
+        <v>-0.00235329337230633</v>
       </c>
       <c r="D30">
-        <v>0.08055744874334154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08538207095369015</v>
+      </c>
+      <c r="E30">
+        <v>-0.02166943098660724</v>
+      </c>
+      <c r="F30">
+        <v>-0.1088437998967559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05097094102269431</v>
+        <v>0.05159529451390873</v>
       </c>
       <c r="C31">
-        <v>-0.01878378071455242</v>
+        <v>-0.01688954981517792</v>
       </c>
       <c r="D31">
-        <v>0.02560175795735782</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02783099548880135</v>
+      </c>
+      <c r="E31">
+        <v>-0.03086405082087304</v>
+      </c>
+      <c r="F31">
+        <v>0.01006382519441327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04538915713764694</v>
+        <v>0.05017866250252839</v>
       </c>
       <c r="C32">
-        <v>-0.002036005394087522</v>
+        <v>0.0009625480201474444</v>
       </c>
       <c r="D32">
-        <v>0.03276529644796693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03676555350425492</v>
+      </c>
+      <c r="E32">
+        <v>-0.03344764315919843</v>
+      </c>
+      <c r="F32">
+        <v>0.002808589814278786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08767316092304407</v>
+        <v>0.08869445469739261</v>
       </c>
       <c r="C33">
-        <v>-0.01379630309688692</v>
+        <v>-0.008546333771050066</v>
       </c>
       <c r="D33">
-        <v>0.09411370805657482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1065188398831349</v>
+      </c>
+      <c r="E33">
+        <v>-0.05973805551077384</v>
+      </c>
+      <c r="F33">
+        <v>-0.02728961272878903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06516690483220619</v>
+        <v>0.06492911446588921</v>
       </c>
       <c r="C34">
-        <v>-0.01553593986695341</v>
+        <v>-0.01103178141434158</v>
       </c>
       <c r="D34">
-        <v>0.1013337774649923</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1123689782837901</v>
+      </c>
+      <c r="E34">
+        <v>-0.04647014385437273</v>
+      </c>
+      <c r="F34">
+        <v>-0.03839041866597033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02685698635649032</v>
+        <v>0.02829241481347898</v>
       </c>
       <c r="C35">
-        <v>-0.005098308859312005</v>
+        <v>-0.004506192326514064</v>
       </c>
       <c r="D35">
-        <v>0.008935324139380481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01170781761083911</v>
+      </c>
+      <c r="E35">
+        <v>-0.0183329512373118</v>
+      </c>
+      <c r="F35">
+        <v>0.002685498079102169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02326894946462379</v>
+        <v>0.02797828319474294</v>
       </c>
       <c r="C36">
-        <v>-0.008376291039624785</v>
+        <v>-0.007462901571577142</v>
       </c>
       <c r="D36">
-        <v>0.03936853618948434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04236468950220435</v>
+      </c>
+      <c r="E36">
+        <v>-0.02150991225186736</v>
+      </c>
+      <c r="F36">
+        <v>-0.01825896590308086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002791984235310165</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000919671422103115</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003251741855127056</v>
+      </c>
+      <c r="E37">
+        <v>-0.001264273990675795</v>
+      </c>
+      <c r="F37">
+        <v>0.0004484152420246655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1034212897747423</v>
+        <v>0.09454733283998024</v>
       </c>
       <c r="C39">
-        <v>-0.02234710362513125</v>
+        <v>-0.01644875680535328</v>
       </c>
       <c r="D39">
-        <v>0.1556566413630122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1543017972849282</v>
+      </c>
+      <c r="E39">
+        <v>-0.07559542008640133</v>
+      </c>
+      <c r="F39">
+        <v>-0.00307287761771713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04328310656501165</v>
+        <v>0.04826338954295205</v>
       </c>
       <c r="C40">
-        <v>-0.01177392312474506</v>
+        <v>-0.01022590096663904</v>
       </c>
       <c r="D40">
-        <v>0.0326179595419892</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03915404752861779</v>
+      </c>
+      <c r="E40">
+        <v>-0.005168360181674859</v>
+      </c>
+      <c r="F40">
+        <v>0.02526325173012055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02576139690599829</v>
+        <v>0.02815255913200995</v>
       </c>
       <c r="C41">
-        <v>-0.008266147844312713</v>
+        <v>-0.007872504848150292</v>
       </c>
       <c r="D41">
-        <v>0.01175848965226053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01298898071252835</v>
+      </c>
+      <c r="E41">
+        <v>-0.01288741104785316</v>
+      </c>
+      <c r="F41">
+        <v>0.01229828650354871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04056380806075444</v>
+        <v>0.03942438071942218</v>
       </c>
       <c r="C43">
-        <v>-0.009147109742540174</v>
+        <v>-0.008254859802945366</v>
       </c>
       <c r="D43">
-        <v>0.02235254899465437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02282778997777998</v>
+      </c>
+      <c r="E43">
+        <v>-0.02851216722828163</v>
+      </c>
+      <c r="F43">
+        <v>0.0244787186844389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06440497994139907</v>
+        <v>0.0715571784889547</v>
       </c>
       <c r="C44">
-        <v>-0.0231539904090511</v>
+        <v>-0.01948096720085729</v>
       </c>
       <c r="D44">
-        <v>0.07841669966938716</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08709532263146311</v>
+      </c>
+      <c r="E44">
+        <v>-0.07723355313843573</v>
+      </c>
+      <c r="F44">
+        <v>-0.2114625805123574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001301572491247922</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-6.105023720466515e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.93857708745685e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0002682781200366843</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001479010086384443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02277566899007914</v>
+        <v>0.02522565752743162</v>
       </c>
       <c r="C46">
-        <v>-0.005188424054610306</v>
+        <v>-0.004292749951266593</v>
       </c>
       <c r="D46">
-        <v>0.01511192718882412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0181291960832392</v>
+      </c>
+      <c r="E46">
+        <v>-0.03619721376412676</v>
+      </c>
+      <c r="F46">
+        <v>0.02286545692046948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05430850228653288</v>
+        <v>0.05316986758268345</v>
       </c>
       <c r="C47">
-        <v>-0.00732300511236319</v>
+        <v>-0.005817062715126813</v>
       </c>
       <c r="D47">
-        <v>0.009574513750799169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0130120135013444</v>
+      </c>
+      <c r="E47">
+        <v>-0.02501711653264535</v>
+      </c>
+      <c r="F47">
+        <v>0.04484324601609022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04775998427539953</v>
+        <v>0.05152815416344487</v>
       </c>
       <c r="C48">
-        <v>-0.005624856767282757</v>
+        <v>-0.003243802512768304</v>
       </c>
       <c r="D48">
-        <v>0.05222673806707593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05443644428792597</v>
+      </c>
+      <c r="E48">
+        <v>-0.0007371214776957321</v>
+      </c>
+      <c r="F48">
+        <v>-0.01663858224275204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1956747176951165</v>
+        <v>0.1984257045675133</v>
       </c>
       <c r="C49">
-        <v>-0.02814175004776111</v>
+        <v>-0.0246515930813835</v>
       </c>
       <c r="D49">
-        <v>-0.01029475886216222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005286307185078627</v>
+      </c>
+      <c r="E49">
+        <v>-0.02253117992870004</v>
+      </c>
+      <c r="F49">
+        <v>-0.05703961380333696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0493457829836141</v>
+        <v>0.05209933543147726</v>
       </c>
       <c r="C50">
-        <v>-0.01451921274023191</v>
+        <v>-0.01312336520016934</v>
       </c>
       <c r="D50">
-        <v>0.02455504044654129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02686597346437665</v>
+      </c>
+      <c r="E50">
+        <v>-0.03175943463704448</v>
+      </c>
+      <c r="F50">
+        <v>-0.008007773513883097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1519252269405792</v>
+        <v>0.1455069534131069</v>
       </c>
       <c r="C52">
-        <v>-0.0247465132921177</v>
+        <v>-0.02126551024543089</v>
       </c>
       <c r="D52">
-        <v>0.04359771387165849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04588928286912103</v>
+      </c>
+      <c r="E52">
+        <v>-0.03219962876330792</v>
+      </c>
+      <c r="F52">
+        <v>-0.04166728587412451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1748813524605755</v>
+        <v>0.1676964575380644</v>
       </c>
       <c r="C53">
-        <v>-0.02738106141353816</v>
+        <v>-0.02524705967251585</v>
       </c>
       <c r="D53">
-        <v>0.003997639564283594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007228463438253188</v>
+      </c>
+      <c r="E53">
+        <v>-0.03845937579196747</v>
+      </c>
+      <c r="F53">
+        <v>-0.08937836618168153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01441088430629611</v>
+        <v>0.01805640875894706</v>
       </c>
       <c r="C54">
-        <v>-0.01197444281929582</v>
+        <v>-0.01129442079511283</v>
       </c>
       <c r="D54">
-        <v>0.02865659070374769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02809305470804295</v>
+      </c>
+      <c r="E54">
+        <v>-0.02120817037305257</v>
+      </c>
+      <c r="F54">
+        <v>0.003265890496329397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1187875141938613</v>
+        <v>0.1165363477156847</v>
       </c>
       <c r="C55">
-        <v>-0.02390218878315222</v>
+        <v>-0.02192274969664366</v>
       </c>
       <c r="D55">
-        <v>0.003157638450900262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01142944303874934</v>
+      </c>
+      <c r="E55">
+        <v>-0.03909566678243574</v>
+      </c>
+      <c r="F55">
+        <v>-0.03275143968035246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1806652492983351</v>
+        <v>0.1747462053277254</v>
       </c>
       <c r="C56">
-        <v>-0.02566330144911618</v>
+        <v>-0.0237796468624109</v>
       </c>
       <c r="D56">
-        <v>-0.005361123766612545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0006574651953281421</v>
+      </c>
+      <c r="E56">
+        <v>-0.03858428978699718</v>
+      </c>
+      <c r="F56">
+        <v>-0.0481860484463361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04543103934242076</v>
+        <v>0.04445561231301438</v>
       </c>
       <c r="C58">
-        <v>-0.004301493749471018</v>
+        <v>-0.0003960370259858355</v>
       </c>
       <c r="D58">
-        <v>0.07266055335370748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.08070303735961008</v>
+      </c>
+      <c r="E58">
+        <v>-0.04040326384511608</v>
+      </c>
+      <c r="F58">
+        <v>0.04549228502092031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1687041394301163</v>
+        <v>0.1736098083117127</v>
       </c>
       <c r="C59">
-        <v>-0.02537696292625766</v>
+        <v>-0.02926643207887846</v>
       </c>
       <c r="D59">
-        <v>-0.2124549003096808</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2119921492652161</v>
+      </c>
+      <c r="E59">
+        <v>0.05683211680329652</v>
+      </c>
+      <c r="F59">
+        <v>0.06685236743878986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2283208649560419</v>
+        <v>0.2223774076202841</v>
       </c>
       <c r="C60">
-        <v>-0.008283703114107538</v>
+        <v>-0.003804828559844514</v>
       </c>
       <c r="D60">
-        <v>0.02415153448650839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02506010271128032</v>
+      </c>
+      <c r="E60">
+        <v>0.01127004828111568</v>
+      </c>
+      <c r="F60">
+        <v>0.006867970826566533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07541760081760854</v>
+        <v>0.07153467169255766</v>
       </c>
       <c r="C61">
-        <v>-0.01603434400823704</v>
+        <v>-0.01108486351083501</v>
       </c>
       <c r="D61">
-        <v>0.1165678119339262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1196360600087502</v>
+      </c>
+      <c r="E61">
+        <v>-0.05022017994356701</v>
+      </c>
+      <c r="F61">
+        <v>0.005881421825205168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1714945373429391</v>
+        <v>0.1673393214592043</v>
       </c>
       <c r="C62">
-        <v>-0.02844868105979646</v>
+        <v>-0.02587306153577284</v>
       </c>
       <c r="D62">
-        <v>0.001145241277357513</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007451991828176349</v>
+      </c>
+      <c r="E62">
+        <v>-0.04090910073827073</v>
+      </c>
+      <c r="F62">
+        <v>-0.03013845218043534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04269604322220123</v>
+        <v>0.04748784969317755</v>
       </c>
       <c r="C63">
-        <v>-0.00602000990842479</v>
+        <v>-0.003435616057217961</v>
       </c>
       <c r="D63">
-        <v>0.06057787274836628</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06872895925349704</v>
+      </c>
+      <c r="E63">
+        <v>-0.02951051532411037</v>
+      </c>
+      <c r="F63">
+        <v>0.0045648790125933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.114219961012707</v>
+        <v>0.1113809177955912</v>
       </c>
       <c r="C64">
-        <v>-0.01903368354352184</v>
+        <v>-0.01553538753837589</v>
       </c>
       <c r="D64">
-        <v>0.04335067018128493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04811688300496333</v>
+      </c>
+      <c r="E64">
+        <v>-0.03439934842567195</v>
+      </c>
+      <c r="F64">
+        <v>-0.02049653239095356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1502048641139444</v>
+        <v>0.1560582179454782</v>
       </c>
       <c r="C65">
-        <v>-0.04168333753923798</v>
+        <v>-0.04058806474834535</v>
       </c>
       <c r="D65">
-        <v>-0.04956126947277387</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0372951031454732</v>
+      </c>
+      <c r="E65">
+        <v>-0.01008294751862979</v>
+      </c>
+      <c r="F65">
+        <v>-0.05981933219887531</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1255116553693632</v>
+        <v>0.1142368701464148</v>
       </c>
       <c r="C66">
-        <v>-0.02128383698903029</v>
+        <v>-0.01478360663212792</v>
       </c>
       <c r="D66">
-        <v>0.1402642933812638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1440282165491472</v>
+      </c>
+      <c r="E66">
+        <v>-0.07776414319125384</v>
+      </c>
+      <c r="F66">
+        <v>-0.007514514849535634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06029523410387221</v>
+        <v>0.05337497709916195</v>
       </c>
       <c r="C67">
-        <v>-0.006465377813959425</v>
+        <v>-0.004003519071853536</v>
       </c>
       <c r="D67">
-        <v>0.05067612154994527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05426128130047028</v>
+      </c>
+      <c r="E67">
+        <v>-0.02307331055240519</v>
+      </c>
+      <c r="F67">
+        <v>0.08041844321897559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1177770270118604</v>
+        <v>0.1247427279178767</v>
       </c>
       <c r="C68">
-        <v>-0.0335322421779814</v>
+        <v>-0.03944581682420165</v>
       </c>
       <c r="D68">
-        <v>-0.2532530379165391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2527433152911769</v>
+      </c>
+      <c r="E68">
+        <v>0.08947508113411742</v>
+      </c>
+      <c r="F68">
+        <v>-0.02594803772534514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04002420686211862</v>
+        <v>0.03929446470665973</v>
       </c>
       <c r="C69">
-        <v>-0.003414590040508964</v>
+        <v>-0.002471511538790771</v>
       </c>
       <c r="D69">
-        <v>0.008765764305130872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009904692417067658</v>
+      </c>
+      <c r="E69">
+        <v>-0.02944182226345766</v>
+      </c>
+      <c r="F69">
+        <v>0.02048545553749013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06877711038799567</v>
+        <v>0.06975079938748704</v>
       </c>
       <c r="C70">
-        <v>0.02304907337155586</v>
+        <v>0.02473846555631562</v>
       </c>
       <c r="D70">
-        <v>0.03606656436248883</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03515910761142939</v>
+      </c>
+      <c r="E70">
+        <v>0.03567873349237485</v>
+      </c>
+      <c r="F70">
+        <v>0.3674057402183438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1372480554760304</v>
+        <v>0.1449910198135662</v>
       </c>
       <c r="C71">
-        <v>-0.03888618337502399</v>
+        <v>-0.04463569038950376</v>
       </c>
       <c r="D71">
-        <v>-0.2670068794358653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2617466736990393</v>
+      </c>
+      <c r="E71">
+        <v>0.09933014954533176</v>
+      </c>
+      <c r="F71">
+        <v>-0.02880738589695199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.138065269349011</v>
+        <v>0.1437836027995471</v>
       </c>
       <c r="C72">
-        <v>-0.03222125315172923</v>
+        <v>-0.03153420987122404</v>
       </c>
       <c r="D72">
-        <v>0.002073744525959911</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.000318169229911289</v>
+      </c>
+      <c r="E72">
+        <v>-0.04402574590561981</v>
+      </c>
+      <c r="F72">
+        <v>-0.0381367606978938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.197008227765978</v>
+        <v>0.2009413625140395</v>
       </c>
       <c r="C73">
-        <v>-0.02165330673749152</v>
+        <v>-0.01659509156209478</v>
       </c>
       <c r="D73">
-        <v>0.009568786757665038</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01640613387523915</v>
+      </c>
+      <c r="E73">
+        <v>-0.06504356340007483</v>
+      </c>
+      <c r="F73">
+        <v>-0.01955958381014632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08831891172540665</v>
+        <v>0.08824112494742917</v>
       </c>
       <c r="C74">
-        <v>-0.01621451661616797</v>
+        <v>-0.01448091140914159</v>
       </c>
       <c r="D74">
-        <v>0.009480630641693896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01595618119898834</v>
+      </c>
+      <c r="E74">
+        <v>-0.04908722999965951</v>
+      </c>
+      <c r="F74">
+        <v>-0.04993742349329801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1303048224206753</v>
+        <v>0.1226581880833347</v>
       </c>
       <c r="C75">
-        <v>-0.03458998495195758</v>
+        <v>-0.03157053012201003</v>
       </c>
       <c r="D75">
-        <v>0.0253975313175833</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0312835461813475</v>
+      </c>
+      <c r="E75">
+        <v>-0.06122566294519554</v>
+      </c>
+      <c r="F75">
+        <v>-0.01541014255310077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07919028179756651</v>
+        <v>0.09254109398031322</v>
       </c>
       <c r="C77">
-        <v>-0.01485875796423355</v>
+        <v>-0.01074530419945397</v>
       </c>
       <c r="D77">
-        <v>0.122332852457001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1228216839827173</v>
+      </c>
+      <c r="E77">
+        <v>-0.05225775078081532</v>
+      </c>
+      <c r="F77">
+        <v>-0.05312108442430807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09769154990165518</v>
+        <v>0.09900376850383648</v>
       </c>
       <c r="C78">
-        <v>-0.04439222141818212</v>
+        <v>-0.04094925072473032</v>
       </c>
       <c r="D78">
-        <v>0.1170093792554522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1147700562946634</v>
+      </c>
+      <c r="E78">
+        <v>-0.08127452184203689</v>
+      </c>
+      <c r="F78">
+        <v>-0.04460913101502303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1683368217885165</v>
+        <v>0.1639256688265026</v>
       </c>
       <c r="C79">
-        <v>-0.03201105719831183</v>
+        <v>-0.02901877876994693</v>
       </c>
       <c r="D79">
-        <v>0.01088307134769909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0168897572285287</v>
+      </c>
+      <c r="E79">
+        <v>-0.05042162458388846</v>
+      </c>
+      <c r="F79">
+        <v>-0.01003183244353352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08056321998113489</v>
+        <v>0.07926063114124821</v>
       </c>
       <c r="C80">
-        <v>-0.004127328177422674</v>
+        <v>-0.001733985188705776</v>
       </c>
       <c r="D80">
-        <v>0.05221913609052527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05168915418212881</v>
+      </c>
+      <c r="E80">
+        <v>-0.03728646236567051</v>
+      </c>
+      <c r="F80">
+        <v>0.05188361967997755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1178436573633711</v>
+        <v>0.1119873315369485</v>
       </c>
       <c r="C81">
-        <v>-0.0364686390188922</v>
+        <v>-0.03490416568154333</v>
       </c>
       <c r="D81">
-        <v>0.003906219431413647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.009891373360433166</v>
+      </c>
+      <c r="E81">
+        <v>-0.05456619010240808</v>
+      </c>
+      <c r="F81">
+        <v>-0.00381824666734715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1637245285823987</v>
+        <v>0.1614541762527562</v>
       </c>
       <c r="C82">
-        <v>-0.031817950997145</v>
+        <v>-0.02955074582007467</v>
       </c>
       <c r="D82">
-        <v>0.004066277491026846</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004705548588182661</v>
+      </c>
+      <c r="E82">
+        <v>-0.0376073508849132</v>
+      </c>
+      <c r="F82">
+        <v>-0.09067945747769937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05599117430096615</v>
+        <v>0.05181302817430788</v>
       </c>
       <c r="C83">
-        <v>-0.005468730971377955</v>
+        <v>-0.003578708871450526</v>
       </c>
       <c r="D83">
-        <v>0.03723370609728325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03774643404364365</v>
+      </c>
+      <c r="E83">
+        <v>0.00919730478087241</v>
+      </c>
+      <c r="F83">
+        <v>0.03203352453456253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05763331529042618</v>
+        <v>0.05377563133385379</v>
       </c>
       <c r="C84">
-        <v>-0.01388533101568883</v>
+        <v>-0.01110719676153641</v>
       </c>
       <c r="D84">
-        <v>0.07369855243876862</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07460022696624342</v>
+      </c>
+      <c r="E84">
+        <v>-0.01894416201661805</v>
+      </c>
+      <c r="F84">
+        <v>-0.003734604872945759</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1402381443965121</v>
+        <v>0.1346613772547829</v>
       </c>
       <c r="C85">
-        <v>-0.03523350011535131</v>
+        <v>-0.03299540024116229</v>
       </c>
       <c r="D85">
-        <v>0.006741708712804814</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0116457056992631</v>
+      </c>
+      <c r="E85">
+        <v>-0.04585428539608213</v>
+      </c>
+      <c r="F85">
+        <v>-0.05899177897033098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08211542059033483</v>
+        <v>0.07926170136462868</v>
       </c>
       <c r="C86">
-        <v>0.004119794765044699</v>
+        <v>0.00733543289266082</v>
       </c>
       <c r="D86">
-        <v>0.02400015728128727</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05067606643082026</v>
+      </c>
+      <c r="E86">
+        <v>-0.09737718703782776</v>
+      </c>
+      <c r="F86">
+        <v>0.79877475945842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08881610245222851</v>
+        <v>0.08873310508179655</v>
       </c>
       <c r="C87">
-        <v>-0.02639448446686045</v>
+        <v>-0.02174329979509264</v>
       </c>
       <c r="D87">
-        <v>0.08420779016179904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0878053431096651</v>
+      </c>
+      <c r="E87">
+        <v>0.05878627191196491</v>
+      </c>
+      <c r="F87">
+        <v>-0.08528794431301581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06164984350571701</v>
+        <v>0.06104954025297082</v>
       </c>
       <c r="C88">
-        <v>-0.006773086402917201</v>
+        <v>-0.004299451506239584</v>
       </c>
       <c r="D88">
-        <v>0.05367987179147591</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05317255789819148</v>
+      </c>
+      <c r="E88">
+        <v>-0.03352600055523862</v>
+      </c>
+      <c r="F88">
+        <v>-0.002097498675257173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1277886145717433</v>
+        <v>0.1330102307430532</v>
       </c>
       <c r="C89">
-        <v>-0.01425774796716361</v>
+        <v>-0.01967730639967525</v>
       </c>
       <c r="D89">
-        <v>-0.229148274210741</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2345859842535924</v>
+      </c>
+      <c r="E89">
+        <v>0.09098145138919177</v>
+      </c>
+      <c r="F89">
+        <v>-0.01297435671352243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1485336402290115</v>
+        <v>0.1602175592318566</v>
       </c>
       <c r="C90">
-        <v>-0.03540313822391344</v>
+        <v>-0.0418753027076766</v>
       </c>
       <c r="D90">
-        <v>-0.2548844169433546</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2596593831622846</v>
+      </c>
+      <c r="E90">
+        <v>0.1195622584350046</v>
+      </c>
+      <c r="F90">
+        <v>-0.02020424427394009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.125253527347456</v>
+        <v>0.1210756632701363</v>
       </c>
       <c r="C91">
-        <v>-0.02596106019879609</v>
+        <v>-0.02482080839892648</v>
       </c>
       <c r="D91">
-        <v>-0.02134621009906591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01575578717071329</v>
+      </c>
+      <c r="E91">
+        <v>-0.055706428494303</v>
+      </c>
+      <c r="F91">
+        <v>0.02182794803778663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1497365666344303</v>
+        <v>0.153521969835612</v>
       </c>
       <c r="C92">
-        <v>-0.02660157014118558</v>
+        <v>-0.03250196156593427</v>
       </c>
       <c r="D92">
-        <v>-0.2812939879117973</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2853160460735921</v>
+      </c>
+      <c r="E92">
+        <v>0.1092712628020878</v>
+      </c>
+      <c r="F92">
+        <v>-0.003390753063771511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1533348892776707</v>
+        <v>0.1629662030083425</v>
       </c>
       <c r="C93">
-        <v>-0.03153185331423839</v>
+        <v>-0.03664633793940485</v>
       </c>
       <c r="D93">
-        <v>-0.2492192143147259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2528718884048275</v>
+      </c>
+      <c r="E93">
+        <v>0.07360136854596272</v>
+      </c>
+      <c r="F93">
+        <v>-0.02081862039612697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1294074297547476</v>
+        <v>0.121944352394234</v>
       </c>
       <c r="C94">
-        <v>-0.03061863677524328</v>
+        <v>-0.02719667827350085</v>
       </c>
       <c r="D94">
-        <v>0.03773631078432203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04235369813657713</v>
+      </c>
+      <c r="E94">
+        <v>-0.06259954579974994</v>
+      </c>
+      <c r="F94">
+        <v>-0.01912152925373524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1263675768585843</v>
+        <v>0.1292960651209966</v>
       </c>
       <c r="C95">
-        <v>-0.01268234367212379</v>
+        <v>-0.007444078629644648</v>
       </c>
       <c r="D95">
-        <v>0.09496364768906471</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1058507451216945</v>
+      </c>
+      <c r="E95">
+        <v>-0.06878609437777898</v>
+      </c>
+      <c r="F95">
+        <v>0.02268401902711841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1557386401023469</v>
+        <v>0.1420528639339167</v>
       </c>
       <c r="C96">
-        <v>0.9818724929026558</v>
+        <v>0.9828923687261729</v>
       </c>
       <c r="D96">
-        <v>-0.03451126233017811</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05697411338960798</v>
+      </c>
+      <c r="E96">
+        <v>-0.05183696072731316</v>
+      </c>
+      <c r="F96">
+        <v>-0.04567098236103111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.18954222573738</v>
+        <v>0.1934466526211</v>
       </c>
       <c r="C97">
-        <v>-0.002455171129710227</v>
+        <v>-0.0002780808122523687</v>
       </c>
       <c r="D97">
-        <v>-0.02096829312819115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02597562166771284</v>
+      </c>
+      <c r="E97">
+        <v>-0.0168746399267139</v>
+      </c>
+      <c r="F97">
+        <v>0.194024034597908</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1945639573669967</v>
+        <v>0.2005711060043164</v>
       </c>
       <c r="C98">
-        <v>-0.01624852051353404</v>
+        <v>-0.01127113386321061</v>
       </c>
       <c r="D98">
-        <v>0.01083330659801574</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01278972112366898</v>
+      </c>
+      <c r="E98">
+        <v>0.08843946646585372</v>
+      </c>
+      <c r="F98">
+        <v>0.09230384245783291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05780507599573494</v>
+        <v>0.05747331715469783</v>
       </c>
       <c r="C99">
-        <v>0.0002398911849689259</v>
+        <v>0.002323597178019778</v>
       </c>
       <c r="D99">
-        <v>0.04204280927906891</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04702757439900027</v>
+      </c>
+      <c r="E99">
+        <v>-0.02905090084916027</v>
+      </c>
+      <c r="F99">
+        <v>0.007037070192101371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1439458376995603</v>
+        <v>0.1335601209483592</v>
       </c>
       <c r="C100">
-        <v>0.03683595907481451</v>
+        <v>0.04620671091150705</v>
       </c>
       <c r="D100">
-        <v>0.4259756428266983</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3815603434946291</v>
+      </c>
+      <c r="E100">
+        <v>0.8855833446328052</v>
+      </c>
+      <c r="F100">
+        <v>0.01911624617600075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02529657204383157</v>
+        <v>0.02743151951156618</v>
       </c>
       <c r="C101">
-        <v>-0.009820609490357561</v>
+        <v>-0.009051881046948594</v>
       </c>
       <c r="D101">
-        <v>0.03071512035735392</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03187868578145984</v>
+      </c>
+      <c r="E101">
+        <v>-0.01854943611025907</v>
+      </c>
+      <c r="F101">
+        <v>0.02262659198031685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
